--- a/src/main/resources/excel/finished/原供料/12.原料车间生产运行记录表.xlsx
+++ b/src/main/resources/excel/finished/原供料/12.原料车间生产运行记录表.xlsx
@@ -11,6 +11,10 @@
     <sheet name="_yglmain_day_shift" sheetId="4" r:id="rId2"/>
     <sheet name="_ygl1_day_shift" sheetId="2" r:id="rId3"/>
     <sheet name="_ygl2_day_shift" sheetId="3" r:id="rId4"/>
+    <sheet name="_ygl3_day_shift" sheetId="5" r:id="rId5"/>
+    <sheet name="_ygl4_day_shift" sheetId="6" r:id="rId6"/>
+    <sheet name="_ygl5_day_shift" sheetId="7" r:id="rId7"/>
+    <sheet name="_ygl6_day_shift" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">原料车间生产运行记录表!$B$2:$Y$52</definedName>
@@ -20,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82">
   <si>
     <r>
       <rPr>
@@ -367,133 +371,15 @@
     <t>时间</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="22"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">  手动录入  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">                                                  记录人：             日期 ：      月     日     班                                                                                  </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="22"/>
-        <color indexed="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>手动录入</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">                                                           </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">记录人： </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">            </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">日期 ：      月     日     班                                                      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">                            </t>
-    </r>
+    <t>记录人：</t>
+  </si>
+  <si>
+    <t>日期 ：</t>
   </si>
   <si>
     <t>主要物资待卸情况</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="22"/>
-        <color indexed="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">手动录入   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">                                                        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">记录人： </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">            </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">日期 ：      月     日     班                                                      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">                            </t>
-    </r>
-  </si>
-  <si>
-    <t>手动录入</t>
-  </si>
-  <si>
     <t>matName</t>
   </si>
   <si>
@@ -573,6 +459,15 @@
   </si>
   <si>
     <t>combinedOut/SUM(OUT_TIME)</t>
+  </si>
+  <si>
+    <t>recordDesc</t>
+  </si>
+  <si>
+    <t>recordOper</t>
+  </si>
+  <si>
+    <t>shiftDay</t>
   </si>
 </sst>
 </file>
@@ -580,12 +475,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="32">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -632,9 +527,20 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="22"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="22"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -646,53 +552,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -722,7 +589,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -735,31 +626,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color indexed="36"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -787,16 +656,47 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="22"/>
-      <color indexed="10"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color indexed="36"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="34">
@@ -820,31 +720,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -856,13 +750,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -880,7 +774,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="52"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="36"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -892,55 +840,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="36"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="42"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor indexed="46"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -952,37 +876,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="46"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
+        <fgColor indexed="52"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -994,7 +888,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1142,35 +1042,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399975585192419"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1208,8 +1082,43 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1232,15 +1141,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1250,146 +1150,146 @@
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1438,20 +1338,23 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1468,38 +1371,41 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1507,6 +1413,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1517,14 +1432,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -1582,9 +1497,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="00FF0000"/>
       <color rgb="00FFFFFF"/>
       <color rgb="00FFFF00"/>
+      <color rgb="00FF0000"/>
       <color rgb="00000000"/>
     </mruColors>
   </colors>
@@ -1885,8 +1800,8 @@
   <sheetPr/>
   <dimension ref="A2:IV52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:K40"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C6" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17:Y27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="14.25"/>
@@ -1967,20 +1882,20 @@
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
-      <c r="N4" s="23"/>
+      <c r="N4" s="24"/>
       <c r="O4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="24"/>
-      <c r="S4" s="24"/>
-      <c r="T4" s="24"/>
-      <c r="U4" s="24"/>
-      <c r="V4" s="24"/>
-      <c r="W4" s="24"/>
-      <c r="X4" s="24"/>
-      <c r="Y4" s="41"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="25"/>
+      <c r="V4" s="25"/>
+      <c r="W4" s="25"/>
+      <c r="X4" s="25"/>
+      <c r="Y4" s="46"/>
     </row>
     <row r="5" ht="21.75" customHeight="1" spans="2:25">
       <c r="B5" s="9" t="s">
@@ -1998,19 +1913,19 @@
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
-      <c r="O5" s="25" t="s">
+      <c r="O5" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
-      <c r="W5" s="26"/>
-      <c r="X5" s="26"/>
-      <c r="Y5" s="42"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="27"/>
+      <c r="V5" s="27"/>
+      <c r="W5" s="27"/>
+      <c r="X5" s="27"/>
+      <c r="Y5" s="47"/>
     </row>
     <row r="6" ht="21.75" customHeight="1" spans="2:25">
       <c r="B6" s="10" t="s">
@@ -2036,17 +1951,17 @@
       </c>
       <c r="M6" s="1"/>
       <c r="N6" s="11"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="26"/>
-      <c r="S6" s="26"/>
-      <c r="T6" s="26"/>
-      <c r="U6" s="26"/>
-      <c r="V6" s="26"/>
-      <c r="W6" s="26"/>
-      <c r="X6" s="26"/>
-      <c r="Y6" s="42"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="27"/>
+      <c r="V6" s="27"/>
+      <c r="W6" s="27"/>
+      <c r="X6" s="27"/>
+      <c r="Y6" s="47"/>
     </row>
     <row r="7" ht="21.75" customHeight="1" spans="2:25">
       <c r="B7" s="10"/>
@@ -2086,25 +2001,25 @@
       <c r="N7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="O7" s="27" t="s">
+      <c r="O7" s="28" t="s">
         <v>12</v>
       </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
-      <c r="R7" s="27" t="s">
+      <c r="R7" s="28" t="s">
         <v>13</v>
       </c>
       <c r="S7" s="1"/>
-      <c r="T7" s="27" t="s">
+      <c r="T7" s="28" t="s">
         <v>13</v>
       </c>
       <c r="U7" s="1"/>
-      <c r="V7" s="39" t="s">
+      <c r="V7" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="W7" s="40"/>
-      <c r="X7" s="40"/>
-      <c r="Y7" s="43"/>
+      <c r="W7" s="42"/>
+      <c r="X7" s="42"/>
+      <c r="Y7" s="48"/>
     </row>
     <row r="8" ht="21.75" customHeight="1" spans="1:256">
       <c r="A8" s="1"/>
@@ -2558,7 +2473,7 @@
         <v/>
       </c>
       <c r="X10" s="10"/>
-      <c r="Y10" s="44" t="str">
+      <c r="Y10" s="49" t="str">
         <f>IF(_ygl1_day_shift!K2="","",_ygl1_day_shift!K2)</f>
         <v/>
       </c>
@@ -2641,7 +2556,7 @@
         <v/>
       </c>
       <c r="X11" s="10"/>
-      <c r="Y11" s="44" t="str">
+      <c r="Y11" s="49" t="str">
         <f>IF(_ygl1_day_shift!K3="","",_ygl1_day_shift!K3)</f>
         <v/>
       </c>
@@ -2876,7 +2791,7 @@
         <v/>
       </c>
       <c r="X14" s="10"/>
-      <c r="Y14" s="44" t="str">
+      <c r="Y14" s="49" t="str">
         <f>IF(_ygl2_day_shift!K2="","",_ygl2_day_shift!K2)</f>
         <v/>
       </c>
@@ -2959,7 +2874,7 @@
         <v/>
       </c>
       <c r="X15" s="10"/>
-      <c r="Y15" s="44" t="str">
+      <c r="Y15" s="49" t="str">
         <f>IF(_ygl2_day_shift!K3="","",_ygl2_day_shift!K3)</f>
         <v/>
       </c>
@@ -3042,7 +2957,7 @@
         <v/>
       </c>
       <c r="X16" s="10"/>
-      <c r="Y16" s="44" t="str">
+      <c r="Y16" s="49" t="str">
         <f>IF(_ygl2_day_shift!K4="","",_ygl2_day_shift!K4)</f>
         <v/>
       </c>
@@ -3091,19 +3006,20 @@
       <c r="L17" s="10"/>
       <c r="M17" s="10"/>
       <c r="N17" s="10"/>
-      <c r="O17" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="29"/>
-      <c r="R17" s="29"/>
-      <c r="S17" s="29"/>
-      <c r="T17" s="29"/>
-      <c r="U17" s="29"/>
-      <c r="V17" s="29"/>
-      <c r="W17" s="29"/>
-      <c r="X17" s="29"/>
-      <c r="Y17" s="45"/>
+      <c r="O17" s="29" t="str">
+        <f>IF(_ygl3_day_shift!A2="","",_ygl3_day_shift!A2)</f>
+        <v/>
+      </c>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="30"/>
+      <c r="R17" s="30"/>
+      <c r="S17" s="30"/>
+      <c r="T17" s="30"/>
+      <c r="U17" s="30"/>
+      <c r="V17" s="30"/>
+      <c r="W17" s="30"/>
+      <c r="X17" s="30"/>
+      <c r="Y17" s="50"/>
     </row>
     <row r="18" ht="21.75" customHeight="1" spans="2:25">
       <c r="B18" s="10" t="str">
@@ -3149,17 +3065,17 @@
       <c r="L18" s="10"/>
       <c r="M18" s="10"/>
       <c r="N18" s="10"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="31"/>
-      <c r="Q18" s="31"/>
-      <c r="R18" s="31"/>
-      <c r="S18" s="31"/>
-      <c r="T18" s="31"/>
-      <c r="U18" s="31"/>
-      <c r="V18" s="31"/>
-      <c r="W18" s="31"/>
-      <c r="X18" s="31"/>
-      <c r="Y18" s="46"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="32"/>
+      <c r="Q18" s="32"/>
+      <c r="R18" s="32"/>
+      <c r="S18" s="32"/>
+      <c r="T18" s="32"/>
+      <c r="U18" s="32"/>
+      <c r="V18" s="32"/>
+      <c r="W18" s="32"/>
+      <c r="X18" s="32"/>
+      <c r="Y18" s="51"/>
     </row>
     <row r="19" ht="21.75" customHeight="1" spans="2:25">
       <c r="B19" s="10" t="str">
@@ -3205,17 +3121,17 @@
       <c r="L19" s="10"/>
       <c r="M19" s="10"/>
       <c r="N19" s="10"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="31"/>
-      <c r="R19" s="31"/>
-      <c r="S19" s="31"/>
-      <c r="T19" s="31"/>
-      <c r="U19" s="31"/>
-      <c r="V19" s="31"/>
-      <c r="W19" s="31"/>
-      <c r="X19" s="31"/>
-      <c r="Y19" s="46"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="32"/>
+      <c r="Q19" s="32"/>
+      <c r="R19" s="32"/>
+      <c r="S19" s="32"/>
+      <c r="T19" s="32"/>
+      <c r="U19" s="32"/>
+      <c r="V19" s="32"/>
+      <c r="W19" s="32"/>
+      <c r="X19" s="32"/>
+      <c r="Y19" s="51"/>
     </row>
     <row r="20" ht="21.75" customHeight="1" spans="2:25">
       <c r="B20" s="10" t="str">
@@ -3261,17 +3177,17 @@
       <c r="L20" s="10"/>
       <c r="M20" s="10"/>
       <c r="N20" s="10"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="31"/>
-      <c r="Q20" s="31"/>
-      <c r="R20" s="31"/>
-      <c r="S20" s="31"/>
-      <c r="T20" s="31"/>
-      <c r="U20" s="31"/>
-      <c r="V20" s="31"/>
-      <c r="W20" s="31"/>
-      <c r="X20" s="31"/>
-      <c r="Y20" s="46"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="32"/>
+      <c r="Q20" s="32"/>
+      <c r="R20" s="32"/>
+      <c r="S20" s="32"/>
+      <c r="T20" s="32"/>
+      <c r="U20" s="32"/>
+      <c r="V20" s="32"/>
+      <c r="W20" s="32"/>
+      <c r="X20" s="32"/>
+      <c r="Y20" s="51"/>
     </row>
     <row r="21" ht="21.75" customHeight="1" spans="2:25">
       <c r="B21" s="10" t="str">
@@ -3317,17 +3233,17 @@
       <c r="L21" s="10"/>
       <c r="M21" s="10"/>
       <c r="N21" s="10"/>
-      <c r="O21" s="30"/>
-      <c r="P21" s="31"/>
-      <c r="Q21" s="31"/>
-      <c r="R21" s="31"/>
-      <c r="S21" s="31"/>
-      <c r="T21" s="31"/>
-      <c r="U21" s="31"/>
-      <c r="V21" s="31"/>
-      <c r="W21" s="31"/>
-      <c r="X21" s="31"/>
-      <c r="Y21" s="46"/>
+      <c r="O21" s="31"/>
+      <c r="P21" s="32"/>
+      <c r="Q21" s="32"/>
+      <c r="R21" s="32"/>
+      <c r="S21" s="32"/>
+      <c r="T21" s="32"/>
+      <c r="U21" s="32"/>
+      <c r="V21" s="32"/>
+      <c r="W21" s="32"/>
+      <c r="X21" s="32"/>
+      <c r="Y21" s="51"/>
     </row>
     <row r="22" ht="21.75" customHeight="1" spans="2:25">
       <c r="B22" s="10" t="str">
@@ -3373,17 +3289,17 @@
       <c r="L22" s="10"/>
       <c r="M22" s="10"/>
       <c r="N22" s="10"/>
-      <c r="O22" s="30"/>
-      <c r="P22" s="31"/>
-      <c r="Q22" s="31"/>
-      <c r="R22" s="31"/>
-      <c r="S22" s="31"/>
-      <c r="T22" s="31"/>
-      <c r="U22" s="31"/>
-      <c r="V22" s="31"/>
-      <c r="W22" s="31"/>
-      <c r="X22" s="31"/>
-      <c r="Y22" s="46"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="32"/>
+      <c r="Q22" s="32"/>
+      <c r="R22" s="32"/>
+      <c r="S22" s="32"/>
+      <c r="T22" s="32"/>
+      <c r="U22" s="32"/>
+      <c r="V22" s="32"/>
+      <c r="W22" s="32"/>
+      <c r="X22" s="32"/>
+      <c r="Y22" s="51"/>
     </row>
     <row r="23" ht="21.75" customHeight="1" spans="2:25">
       <c r="B23" s="10" t="str">
@@ -3429,17 +3345,17 @@
       <c r="L23" s="10"/>
       <c r="M23" s="10"/>
       <c r="N23" s="10"/>
-      <c r="O23" s="30"/>
-      <c r="P23" s="31"/>
-      <c r="Q23" s="31"/>
-      <c r="R23" s="31"/>
-      <c r="S23" s="31"/>
-      <c r="T23" s="31"/>
-      <c r="U23" s="31"/>
-      <c r="V23" s="31"/>
-      <c r="W23" s="31"/>
-      <c r="X23" s="31"/>
-      <c r="Y23" s="46"/>
+      <c r="O23" s="31"/>
+      <c r="P23" s="32"/>
+      <c r="Q23" s="32"/>
+      <c r="R23" s="32"/>
+      <c r="S23" s="32"/>
+      <c r="T23" s="32"/>
+      <c r="U23" s="32"/>
+      <c r="V23" s="32"/>
+      <c r="W23" s="32"/>
+      <c r="X23" s="32"/>
+      <c r="Y23" s="51"/>
     </row>
     <row r="24" ht="21.75" customHeight="1" spans="2:25">
       <c r="B24" s="10" t="str">
@@ -3485,17 +3401,17 @@
       <c r="L24" s="10"/>
       <c r="M24" s="10"/>
       <c r="N24" s="10"/>
-      <c r="O24" s="30"/>
-      <c r="P24" s="31"/>
-      <c r="Q24" s="31"/>
-      <c r="R24" s="31"/>
-      <c r="S24" s="31"/>
-      <c r="T24" s="31"/>
-      <c r="U24" s="31"/>
-      <c r="V24" s="31"/>
-      <c r="W24" s="31"/>
-      <c r="X24" s="31"/>
-      <c r="Y24" s="46"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="32"/>
+      <c r="Q24" s="32"/>
+      <c r="R24" s="32"/>
+      <c r="S24" s="32"/>
+      <c r="T24" s="32"/>
+      <c r="U24" s="32"/>
+      <c r="V24" s="32"/>
+      <c r="W24" s="32"/>
+      <c r="X24" s="32"/>
+      <c r="Y24" s="51"/>
     </row>
     <row r="25" ht="21.75" customHeight="1" spans="2:25">
       <c r="B25" s="10" t="str">
@@ -3541,17 +3457,17 @@
       <c r="L25" s="10"/>
       <c r="M25" s="10"/>
       <c r="N25" s="10"/>
-      <c r="O25" s="30"/>
-      <c r="P25" s="31"/>
-      <c r="Q25" s="31"/>
-      <c r="R25" s="31"/>
-      <c r="S25" s="31"/>
-      <c r="T25" s="31"/>
-      <c r="U25" s="31"/>
-      <c r="V25" s="31"/>
-      <c r="W25" s="31"/>
-      <c r="X25" s="31"/>
-      <c r="Y25" s="46"/>
+      <c r="O25" s="31"/>
+      <c r="P25" s="32"/>
+      <c r="Q25" s="32"/>
+      <c r="R25" s="32"/>
+      <c r="S25" s="32"/>
+      <c r="T25" s="32"/>
+      <c r="U25" s="32"/>
+      <c r="V25" s="32"/>
+      <c r="W25" s="32"/>
+      <c r="X25" s="32"/>
+      <c r="Y25" s="51"/>
     </row>
     <row r="26" ht="21.75" customHeight="1" spans="2:25">
       <c r="B26" s="10" t="str">
@@ -3597,17 +3513,17 @@
       <c r="L26" s="10"/>
       <c r="M26" s="10"/>
       <c r="N26" s="10"/>
-      <c r="O26" s="30"/>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="31"/>
-      <c r="R26" s="31"/>
-      <c r="S26" s="31"/>
-      <c r="T26" s="31"/>
-      <c r="U26" s="31"/>
-      <c r="V26" s="31"/>
-      <c r="W26" s="31"/>
-      <c r="X26" s="31"/>
-      <c r="Y26" s="46"/>
+      <c r="O26" s="31"/>
+      <c r="P26" s="32"/>
+      <c r="Q26" s="32"/>
+      <c r="R26" s="32"/>
+      <c r="S26" s="32"/>
+      <c r="T26" s="32"/>
+      <c r="U26" s="32"/>
+      <c r="V26" s="32"/>
+      <c r="W26" s="32"/>
+      <c r="X26" s="32"/>
+      <c r="Y26" s="51"/>
     </row>
     <row r="27" ht="21.75" customHeight="1" spans="2:25">
       <c r="B27" s="10" t="str">
@@ -3653,17 +3569,17 @@
       <c r="L27" s="10"/>
       <c r="M27" s="10"/>
       <c r="N27" s="10"/>
-      <c r="O27" s="30"/>
-      <c r="P27" s="31"/>
-      <c r="Q27" s="31"/>
-      <c r="R27" s="31"/>
-      <c r="S27" s="31"/>
-      <c r="T27" s="31"/>
-      <c r="U27" s="31"/>
-      <c r="V27" s="31"/>
-      <c r="W27" s="31"/>
-      <c r="X27" s="31"/>
-      <c r="Y27" s="46"/>
+      <c r="O27" s="31"/>
+      <c r="P27" s="32"/>
+      <c r="Q27" s="32"/>
+      <c r="R27" s="32"/>
+      <c r="S27" s="32"/>
+      <c r="T27" s="32"/>
+      <c r="U27" s="32"/>
+      <c r="V27" s="32"/>
+      <c r="W27" s="32"/>
+      <c r="X27" s="32"/>
+      <c r="Y27" s="51"/>
     </row>
     <row r="28" ht="21.75" customHeight="1" spans="2:25">
       <c r="B28" s="10" t="str">
@@ -3702,24 +3618,34 @@
         <f>IF(_yglmain_day_shift!I21="","",_yglmain_day_shift!I21)</f>
         <v/>
       </c>
-      <c r="K28" s="32" t="str">
+      <c r="K28" s="33" t="str">
         <f>IF(_yglmain_day_shift!J21="","",_yglmain_day_shift!J21)</f>
         <v/>
       </c>
-      <c r="L28" s="32"/>
-      <c r="M28" s="32"/>
-      <c r="N28" s="32"/>
-      <c r="O28" s="33"/>
-      <c r="P28" s="34"/>
-      <c r="Q28" s="34"/>
-      <c r="R28" s="34"/>
-      <c r="S28" s="34"/>
-      <c r="T28" s="34"/>
-      <c r="U28" s="34"/>
-      <c r="V28" s="34"/>
-      <c r="W28" s="34"/>
-      <c r="X28" s="34"/>
-      <c r="Y28" s="47"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="33"/>
+      <c r="N28" s="33"/>
+      <c r="O28" s="34"/>
+      <c r="P28" s="35"/>
+      <c r="Q28" s="35"/>
+      <c r="R28" s="35"/>
+      <c r="S28" s="35"/>
+      <c r="T28" s="35"/>
+      <c r="U28" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="V28" s="44" t="str">
+        <f>IF(_ygl3_day_shift!B2="","",_ygl3_day_shift!B2)</f>
+        <v/>
+      </c>
+      <c r="W28" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="X28" s="45" t="str">
+        <f>IF(_ygl3_day_shift!C2="","",_ygl3_day_shift!C2)</f>
+        <v/>
+      </c>
+      <c r="Y28" s="52"/>
     </row>
     <row r="29" ht="21.75" customHeight="1" spans="2:25">
       <c r="B29" s="15" t="str">
@@ -3758,26 +3684,27 @@
         <f>IF(_yglmain_day_shift!I22="","",_yglmain_day_shift!I22)</f>
         <v/>
       </c>
-      <c r="K29" s="32" t="str">
+      <c r="K29" s="33" t="str">
         <f>IF(_yglmain_day_shift!J22="","",_yglmain_day_shift!J22)</f>
         <v/>
       </c>
-      <c r="L29" s="32"/>
-      <c r="M29" s="32"/>
-      <c r="N29" s="32"/>
-      <c r="O29" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="P29" s="29"/>
-      <c r="Q29" s="29"/>
-      <c r="R29" s="29"/>
-      <c r="S29" s="29"/>
-      <c r="T29" s="29"/>
-      <c r="U29" s="29"/>
-      <c r="V29" s="29"/>
-      <c r="W29" s="29"/>
-      <c r="X29" s="29"/>
-      <c r="Y29" s="45"/>
+      <c r="L29" s="33"/>
+      <c r="M29" s="33"/>
+      <c r="N29" s="33"/>
+      <c r="O29" s="29" t="str">
+        <f>IF(_ygl4_day_shift!A2="","",_ygl4_day_shift!A2)</f>
+        <v/>
+      </c>
+      <c r="P29" s="30"/>
+      <c r="Q29" s="30"/>
+      <c r="R29" s="30"/>
+      <c r="S29" s="30"/>
+      <c r="T29" s="30"/>
+      <c r="U29" s="30"/>
+      <c r="V29" s="30"/>
+      <c r="W29" s="30"/>
+      <c r="X29" s="30"/>
+      <c r="Y29" s="50"/>
     </row>
     <row r="30" ht="21.75" customHeight="1" spans="2:25">
       <c r="B30" s="15" t="str">
@@ -3816,24 +3743,24 @@
         <f>IF(_yglmain_day_shift!I23="","",_yglmain_day_shift!I23)</f>
         <v/>
       </c>
-      <c r="K30" s="32" t="str">
+      <c r="K30" s="33" t="str">
         <f>IF(_yglmain_day_shift!J23="","",_yglmain_day_shift!J23)</f>
         <v/>
       </c>
-      <c r="L30" s="32"/>
-      <c r="M30" s="32"/>
-      <c r="N30" s="32"/>
-      <c r="O30" s="30"/>
-      <c r="P30" s="31"/>
-      <c r="Q30" s="31"/>
-      <c r="R30" s="31"/>
-      <c r="S30" s="31"/>
-      <c r="T30" s="31"/>
-      <c r="U30" s="31"/>
-      <c r="V30" s="31"/>
-      <c r="W30" s="31"/>
-      <c r="X30" s="31"/>
-      <c r="Y30" s="46"/>
+      <c r="L30" s="33"/>
+      <c r="M30" s="33"/>
+      <c r="N30" s="33"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="32"/>
+      <c r="Q30" s="32"/>
+      <c r="R30" s="32"/>
+      <c r="S30" s="32"/>
+      <c r="T30" s="32"/>
+      <c r="U30" s="32"/>
+      <c r="V30" s="32"/>
+      <c r="W30" s="32"/>
+      <c r="X30" s="32"/>
+      <c r="Y30" s="51"/>
     </row>
     <row r="31" ht="21.75" customHeight="1" spans="2:25">
       <c r="B31" s="15" t="str">
@@ -3872,24 +3799,24 @@
         <f>IF(_yglmain_day_shift!I24="","",_yglmain_day_shift!I24)</f>
         <v/>
       </c>
-      <c r="K31" s="32" t="str">
+      <c r="K31" s="33" t="str">
         <f>IF(_yglmain_day_shift!J24="","",_yglmain_day_shift!J24)</f>
         <v/>
       </c>
-      <c r="L31" s="32"/>
-      <c r="M31" s="32"/>
-      <c r="N31" s="32"/>
-      <c r="O31" s="30"/>
-      <c r="P31" s="31"/>
-      <c r="Q31" s="31"/>
-      <c r="R31" s="31"/>
-      <c r="S31" s="31"/>
-      <c r="T31" s="31"/>
-      <c r="U31" s="31"/>
-      <c r="V31" s="31"/>
-      <c r="W31" s="31"/>
-      <c r="X31" s="31"/>
-      <c r="Y31" s="46"/>
+      <c r="L31" s="33"/>
+      <c r="M31" s="33"/>
+      <c r="N31" s="33"/>
+      <c r="O31" s="31"/>
+      <c r="P31" s="32"/>
+      <c r="Q31" s="32"/>
+      <c r="R31" s="32"/>
+      <c r="S31" s="32"/>
+      <c r="T31" s="32"/>
+      <c r="U31" s="32"/>
+      <c r="V31" s="32"/>
+      <c r="W31" s="32"/>
+      <c r="X31" s="32"/>
+      <c r="Y31" s="51"/>
     </row>
     <row r="32" ht="21.75" customHeight="1" spans="2:25">
       <c r="B32" s="15" t="str">
@@ -3928,24 +3855,24 @@
         <f>IF(_yglmain_day_shift!I25="","",_yglmain_day_shift!I25)</f>
         <v/>
       </c>
-      <c r="K32" s="32" t="str">
+      <c r="K32" s="33" t="str">
         <f>IF(_yglmain_day_shift!J25="","",_yglmain_day_shift!J25)</f>
         <v/>
       </c>
-      <c r="L32" s="32"/>
-      <c r="M32" s="32"/>
-      <c r="N32" s="32"/>
-      <c r="O32" s="30"/>
-      <c r="P32" s="31"/>
-      <c r="Q32" s="31"/>
-      <c r="R32" s="31"/>
-      <c r="S32" s="31"/>
-      <c r="T32" s="31"/>
-      <c r="U32" s="31"/>
-      <c r="V32" s="31"/>
-      <c r="W32" s="31"/>
-      <c r="X32" s="31"/>
-      <c r="Y32" s="46"/>
+      <c r="L32" s="33"/>
+      <c r="M32" s="33"/>
+      <c r="N32" s="33"/>
+      <c r="O32" s="31"/>
+      <c r="P32" s="32"/>
+      <c r="Q32" s="32"/>
+      <c r="R32" s="32"/>
+      <c r="S32" s="32"/>
+      <c r="T32" s="32"/>
+      <c r="U32" s="32"/>
+      <c r="V32" s="32"/>
+      <c r="W32" s="32"/>
+      <c r="X32" s="32"/>
+      <c r="Y32" s="51"/>
     </row>
     <row r="33" ht="21.75" customHeight="1" spans="2:25">
       <c r="B33" s="15" t="str">
@@ -3984,24 +3911,24 @@
         <f>IF(_yglmain_day_shift!I26="","",_yglmain_day_shift!I26)</f>
         <v/>
       </c>
-      <c r="K33" s="32" t="str">
+      <c r="K33" s="33" t="str">
         <f>IF(_yglmain_day_shift!J26="","",_yglmain_day_shift!J26)</f>
         <v/>
       </c>
-      <c r="L33" s="32"/>
-      <c r="M33" s="32"/>
-      <c r="N33" s="32"/>
-      <c r="O33" s="30"/>
-      <c r="P33" s="31"/>
-      <c r="Q33" s="31"/>
-      <c r="R33" s="31"/>
-      <c r="S33" s="31"/>
-      <c r="T33" s="31"/>
-      <c r="U33" s="31"/>
-      <c r="V33" s="31"/>
-      <c r="W33" s="31"/>
-      <c r="X33" s="31"/>
-      <c r="Y33" s="46"/>
+      <c r="L33" s="33"/>
+      <c r="M33" s="33"/>
+      <c r="N33" s="33"/>
+      <c r="O33" s="31"/>
+      <c r="P33" s="32"/>
+      <c r="Q33" s="32"/>
+      <c r="R33" s="32"/>
+      <c r="S33" s="32"/>
+      <c r="T33" s="32"/>
+      <c r="U33" s="32"/>
+      <c r="V33" s="32"/>
+      <c r="W33" s="32"/>
+      <c r="X33" s="32"/>
+      <c r="Y33" s="51"/>
     </row>
     <row r="34" ht="21.75" customHeight="1" spans="2:25">
       <c r="B34" s="14" t="str">
@@ -4047,17 +3974,17 @@
       <c r="L34" s="14"/>
       <c r="M34" s="10"/>
       <c r="N34" s="10"/>
-      <c r="O34" s="30"/>
-      <c r="P34" s="31"/>
-      <c r="Q34" s="31"/>
-      <c r="R34" s="31"/>
-      <c r="S34" s="31"/>
-      <c r="T34" s="31"/>
-      <c r="U34" s="31"/>
-      <c r="V34" s="31"/>
-      <c r="W34" s="31"/>
-      <c r="X34" s="31"/>
-      <c r="Y34" s="46"/>
+      <c r="O34" s="31"/>
+      <c r="P34" s="32"/>
+      <c r="Q34" s="32"/>
+      <c r="R34" s="32"/>
+      <c r="S34" s="32"/>
+      <c r="T34" s="32"/>
+      <c r="U34" s="32"/>
+      <c r="V34" s="32"/>
+      <c r="W34" s="32"/>
+      <c r="X34" s="32"/>
+      <c r="Y34" s="51"/>
     </row>
     <row r="35" ht="21.75" customHeight="1" spans="2:25">
       <c r="B35" s="14" t="str">
@@ -4103,17 +4030,17 @@
       <c r="L35" s="14"/>
       <c r="M35" s="10"/>
       <c r="N35" s="10"/>
-      <c r="O35" s="30"/>
-      <c r="P35" s="31"/>
-      <c r="Q35" s="31"/>
-      <c r="R35" s="31"/>
-      <c r="S35" s="31"/>
-      <c r="T35" s="31"/>
-      <c r="U35" s="31"/>
-      <c r="V35" s="31"/>
-      <c r="W35" s="31"/>
-      <c r="X35" s="31"/>
-      <c r="Y35" s="46"/>
+      <c r="O35" s="31"/>
+      <c r="P35" s="32"/>
+      <c r="Q35" s="32"/>
+      <c r="R35" s="32"/>
+      <c r="S35" s="32"/>
+      <c r="T35" s="32"/>
+      <c r="U35" s="32"/>
+      <c r="V35" s="32"/>
+      <c r="W35" s="32"/>
+      <c r="X35" s="32"/>
+      <c r="Y35" s="51"/>
     </row>
     <row r="36" ht="21.75" customHeight="1" spans="2:25">
       <c r="B36" s="14" t="str">
@@ -4159,17 +4086,17 @@
       <c r="L36" s="14"/>
       <c r="M36" s="10"/>
       <c r="N36" s="10"/>
-      <c r="O36" s="30"/>
-      <c r="P36" s="31"/>
-      <c r="Q36" s="31"/>
-      <c r="R36" s="31"/>
-      <c r="S36" s="31"/>
-      <c r="T36" s="31"/>
-      <c r="U36" s="31"/>
-      <c r="V36" s="31"/>
-      <c r="W36" s="31"/>
-      <c r="X36" s="31"/>
-      <c r="Y36" s="46"/>
+      <c r="O36" s="31"/>
+      <c r="P36" s="32"/>
+      <c r="Q36" s="32"/>
+      <c r="R36" s="32"/>
+      <c r="S36" s="32"/>
+      <c r="T36" s="32"/>
+      <c r="U36" s="32"/>
+      <c r="V36" s="32"/>
+      <c r="W36" s="32"/>
+      <c r="X36" s="32"/>
+      <c r="Y36" s="51"/>
     </row>
     <row r="37" ht="21.75" customHeight="1" spans="2:25">
       <c r="B37" s="14" t="str">
@@ -4215,17 +4142,17 @@
       <c r="L37" s="14"/>
       <c r="M37" s="10"/>
       <c r="N37" s="10"/>
-      <c r="O37" s="30"/>
-      <c r="P37" s="31"/>
-      <c r="Q37" s="31"/>
-      <c r="R37" s="31"/>
-      <c r="S37" s="31"/>
-      <c r="T37" s="31"/>
-      <c r="U37" s="31"/>
-      <c r="V37" s="31"/>
-      <c r="W37" s="31"/>
-      <c r="X37" s="31"/>
-      <c r="Y37" s="46"/>
+      <c r="O37" s="31"/>
+      <c r="P37" s="32"/>
+      <c r="Q37" s="32"/>
+      <c r="R37" s="32"/>
+      <c r="S37" s="32"/>
+      <c r="T37" s="32"/>
+      <c r="U37" s="32"/>
+      <c r="V37" s="32"/>
+      <c r="W37" s="32"/>
+      <c r="X37" s="32"/>
+      <c r="Y37" s="51"/>
     </row>
     <row r="38" ht="21.75" customHeight="1" spans="2:25">
       <c r="B38" s="14" t="str">
@@ -4271,17 +4198,17 @@
       <c r="L38" s="14"/>
       <c r="M38" s="10"/>
       <c r="N38" s="10"/>
-      <c r="O38" s="30"/>
-      <c r="P38" s="31"/>
-      <c r="Q38" s="31"/>
-      <c r="R38" s="31"/>
-      <c r="S38" s="31"/>
-      <c r="T38" s="31"/>
-      <c r="U38" s="31"/>
-      <c r="V38" s="31"/>
-      <c r="W38" s="31"/>
-      <c r="X38" s="31"/>
-      <c r="Y38" s="46"/>
+      <c r="O38" s="31"/>
+      <c r="P38" s="32"/>
+      <c r="Q38" s="32"/>
+      <c r="R38" s="32"/>
+      <c r="S38" s="32"/>
+      <c r="T38" s="32"/>
+      <c r="U38" s="32"/>
+      <c r="V38" s="32"/>
+      <c r="W38" s="32"/>
+      <c r="X38" s="32"/>
+      <c r="Y38" s="51"/>
     </row>
     <row r="39" ht="21.75" customHeight="1" spans="2:25">
       <c r="B39" s="14" t="str">
@@ -4327,17 +4254,17 @@
       <c r="L39" s="14"/>
       <c r="M39" s="10"/>
       <c r="N39" s="10"/>
-      <c r="O39" s="30"/>
-      <c r="P39" s="31"/>
-      <c r="Q39" s="31"/>
-      <c r="R39" s="31"/>
-      <c r="S39" s="31"/>
-      <c r="T39" s="31"/>
-      <c r="U39" s="31"/>
-      <c r="V39" s="31"/>
-      <c r="W39" s="31"/>
-      <c r="X39" s="31"/>
-      <c r="Y39" s="46"/>
+      <c r="O39" s="31"/>
+      <c r="P39" s="32"/>
+      <c r="Q39" s="32"/>
+      <c r="R39" s="32"/>
+      <c r="S39" s="32"/>
+      <c r="T39" s="32"/>
+      <c r="U39" s="32"/>
+      <c r="V39" s="32"/>
+      <c r="W39" s="32"/>
+      <c r="X39" s="32"/>
+      <c r="Y39" s="51"/>
     </row>
     <row r="40" ht="21.75" customHeight="1" spans="2:25">
       <c r="B40" s="14" t="str">
@@ -4383,17 +4310,27 @@
       <c r="L40" s="14"/>
       <c r="M40" s="10"/>
       <c r="N40" s="10"/>
-      <c r="O40" s="33"/>
-      <c r="P40" s="34"/>
-      <c r="Q40" s="34"/>
-      <c r="R40" s="34"/>
-      <c r="S40" s="34"/>
-      <c r="T40" s="34"/>
-      <c r="U40" s="34"/>
-      <c r="V40" s="34"/>
-      <c r="W40" s="34"/>
-      <c r="X40" s="34"/>
-      <c r="Y40" s="47"/>
+      <c r="O40" s="34"/>
+      <c r="P40" s="35"/>
+      <c r="Q40" s="35"/>
+      <c r="R40" s="35"/>
+      <c r="S40" s="35"/>
+      <c r="T40" s="35"/>
+      <c r="U40" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="V40" s="44" t="str">
+        <f>IF(_ygl4_day_shift!B2="","",_ygl4_day_shift!B2)</f>
+        <v/>
+      </c>
+      <c r="W40" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="X40" s="45" t="str">
+        <f>IF(_ygl4_day_shift!C4="","",_ygl4_day_shift!C2)</f>
+        <v/>
+      </c>
+      <c r="Y40" s="52"/>
     </row>
     <row r="41" ht="21.75" customHeight="1" spans="2:25">
       <c r="B41" s="16" t="s">
@@ -4411,23 +4348,25 @@
       <c r="L41" s="16"/>
       <c r="M41" s="16"/>
       <c r="N41" s="16"/>
-      <c r="O41" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="P41" s="29"/>
-      <c r="Q41" s="29"/>
-      <c r="R41" s="29"/>
-      <c r="S41" s="29"/>
-      <c r="T41" s="29"/>
-      <c r="U41" s="29"/>
-      <c r="V41" s="29"/>
-      <c r="W41" s="29"/>
-      <c r="X41" s="29"/>
-      <c r="Y41" s="45"/>
+      <c r="O41" s="29" t="str">
+        <f>IF(_ygl5_day_shift!A2="","",_ygl5_day_shift!A2)</f>
+        <v/>
+      </c>
+      <c r="P41" s="30"/>
+      <c r="Q41" s="30"/>
+      <c r="R41" s="30"/>
+      <c r="S41" s="30"/>
+      <c r="T41" s="30"/>
+      <c r="U41" s="30"/>
+      <c r="V41" s="30"/>
+      <c r="W41" s="30"/>
+      <c r="X41" s="30"/>
+      <c r="Y41" s="50"/>
     </row>
     <row r="42" ht="21.75" customHeight="1" spans="2:25">
-      <c r="B42" s="17" t="s">
-        <v>53</v>
+      <c r="B42" s="17" t="str">
+        <f>IF(_ygl6_day_shift!A2="","",_ygl6_day_shift!A2)</f>
+        <v/>
       </c>
       <c r="C42" s="18"/>
       <c r="D42" s="18"/>
@@ -4441,17 +4380,17 @@
       <c r="L42" s="18"/>
       <c r="M42" s="18"/>
       <c r="N42" s="36"/>
-      <c r="O42" s="30"/>
-      <c r="P42" s="31"/>
-      <c r="Q42" s="31"/>
-      <c r="R42" s="31"/>
-      <c r="S42" s="31"/>
-      <c r="T42" s="31"/>
-      <c r="U42" s="31"/>
-      <c r="V42" s="31"/>
-      <c r="W42" s="31"/>
-      <c r="X42" s="31"/>
-      <c r="Y42" s="46"/>
+      <c r="O42" s="31"/>
+      <c r="P42" s="32"/>
+      <c r="Q42" s="32"/>
+      <c r="R42" s="32"/>
+      <c r="S42" s="32"/>
+      <c r="T42" s="32"/>
+      <c r="U42" s="32"/>
+      <c r="V42" s="32"/>
+      <c r="W42" s="32"/>
+      <c r="X42" s="32"/>
+      <c r="Y42" s="51"/>
     </row>
     <row r="43" ht="21.75" customHeight="1" spans="2:25">
       <c r="B43" s="19"/>
@@ -4467,17 +4406,17 @@
       <c r="L43" s="20"/>
       <c r="M43" s="20"/>
       <c r="N43" s="37"/>
-      <c r="O43" s="30"/>
-      <c r="P43" s="31"/>
-      <c r="Q43" s="31"/>
-      <c r="R43" s="31"/>
-      <c r="S43" s="31"/>
-      <c r="T43" s="31"/>
-      <c r="U43" s="31"/>
-      <c r="V43" s="31"/>
-      <c r="W43" s="31"/>
-      <c r="X43" s="31"/>
-      <c r="Y43" s="46"/>
+      <c r="O43" s="31"/>
+      <c r="P43" s="32"/>
+      <c r="Q43" s="32"/>
+      <c r="R43" s="32"/>
+      <c r="S43" s="32"/>
+      <c r="T43" s="32"/>
+      <c r="U43" s="32"/>
+      <c r="V43" s="32"/>
+      <c r="W43" s="32"/>
+      <c r="X43" s="32"/>
+      <c r="Y43" s="51"/>
     </row>
     <row r="44" ht="21.75" customHeight="1" spans="2:25">
       <c r="B44" s="19"/>
@@ -4493,17 +4432,17 @@
       <c r="L44" s="20"/>
       <c r="M44" s="20"/>
       <c r="N44" s="37"/>
-      <c r="O44" s="30"/>
-      <c r="P44" s="31"/>
-      <c r="Q44" s="31"/>
-      <c r="R44" s="31"/>
-      <c r="S44" s="31"/>
-      <c r="T44" s="31"/>
-      <c r="U44" s="31"/>
-      <c r="V44" s="31"/>
-      <c r="W44" s="31"/>
-      <c r="X44" s="31"/>
-      <c r="Y44" s="46"/>
+      <c r="O44" s="31"/>
+      <c r="P44" s="32"/>
+      <c r="Q44" s="32"/>
+      <c r="R44" s="32"/>
+      <c r="S44" s="32"/>
+      <c r="T44" s="32"/>
+      <c r="U44" s="32"/>
+      <c r="V44" s="32"/>
+      <c r="W44" s="32"/>
+      <c r="X44" s="32"/>
+      <c r="Y44" s="51"/>
     </row>
     <row r="45" ht="21.75" customHeight="1" spans="2:25">
       <c r="B45" s="19"/>
@@ -4519,17 +4458,17 @@
       <c r="L45" s="20"/>
       <c r="M45" s="20"/>
       <c r="N45" s="37"/>
-      <c r="O45" s="30"/>
-      <c r="P45" s="31"/>
-      <c r="Q45" s="31"/>
-      <c r="R45" s="31"/>
-      <c r="S45" s="31"/>
-      <c r="T45" s="31"/>
-      <c r="U45" s="31"/>
-      <c r="V45" s="31"/>
-      <c r="W45" s="31"/>
-      <c r="X45" s="31"/>
-      <c r="Y45" s="46"/>
+      <c r="O45" s="31"/>
+      <c r="P45" s="32"/>
+      <c r="Q45" s="32"/>
+      <c r="R45" s="32"/>
+      <c r="S45" s="32"/>
+      <c r="T45" s="32"/>
+      <c r="U45" s="32"/>
+      <c r="V45" s="32"/>
+      <c r="W45" s="32"/>
+      <c r="X45" s="32"/>
+      <c r="Y45" s="51"/>
     </row>
     <row r="46" ht="21.75" customHeight="1" spans="2:25">
       <c r="B46" s="19"/>
@@ -4545,17 +4484,17 @@
       <c r="L46" s="20"/>
       <c r="M46" s="20"/>
       <c r="N46" s="37"/>
-      <c r="O46" s="30"/>
-      <c r="P46" s="31"/>
-      <c r="Q46" s="31"/>
-      <c r="R46" s="31"/>
-      <c r="S46" s="31"/>
-      <c r="T46" s="31"/>
-      <c r="U46" s="31"/>
-      <c r="V46" s="31"/>
-      <c r="W46" s="31"/>
-      <c r="X46" s="31"/>
-      <c r="Y46" s="46"/>
+      <c r="O46" s="31"/>
+      <c r="P46" s="32"/>
+      <c r="Q46" s="32"/>
+      <c r="R46" s="32"/>
+      <c r="S46" s="32"/>
+      <c r="T46" s="32"/>
+      <c r="U46" s="32"/>
+      <c r="V46" s="32"/>
+      <c r="W46" s="32"/>
+      <c r="X46" s="32"/>
+      <c r="Y46" s="51"/>
     </row>
     <row r="47" ht="21.75" customHeight="1" spans="2:25">
       <c r="B47" s="19"/>
@@ -4571,17 +4510,17 @@
       <c r="L47" s="20"/>
       <c r="M47" s="20"/>
       <c r="N47" s="37"/>
-      <c r="O47" s="30"/>
-      <c r="P47" s="31"/>
-      <c r="Q47" s="31"/>
-      <c r="R47" s="31"/>
-      <c r="S47" s="31"/>
-      <c r="T47" s="31"/>
-      <c r="U47" s="31"/>
-      <c r="V47" s="31"/>
-      <c r="W47" s="31"/>
-      <c r="X47" s="31"/>
-      <c r="Y47" s="46"/>
+      <c r="O47" s="31"/>
+      <c r="P47" s="32"/>
+      <c r="Q47" s="32"/>
+      <c r="R47" s="32"/>
+      <c r="S47" s="32"/>
+      <c r="T47" s="32"/>
+      <c r="U47" s="32"/>
+      <c r="V47" s="32"/>
+      <c r="W47" s="32"/>
+      <c r="X47" s="32"/>
+      <c r="Y47" s="51"/>
     </row>
     <row r="48" ht="21.75" customHeight="1" spans="2:25">
       <c r="B48" s="19"/>
@@ -4597,17 +4536,17 @@
       <c r="L48" s="20"/>
       <c r="M48" s="20"/>
       <c r="N48" s="37"/>
-      <c r="O48" s="30"/>
-      <c r="P48" s="31"/>
-      <c r="Q48" s="31"/>
-      <c r="R48" s="31"/>
-      <c r="S48" s="31"/>
-      <c r="T48" s="31"/>
-      <c r="U48" s="31"/>
-      <c r="V48" s="31"/>
-      <c r="W48" s="31"/>
-      <c r="X48" s="31"/>
-      <c r="Y48" s="46"/>
+      <c r="O48" s="31"/>
+      <c r="P48" s="32"/>
+      <c r="Q48" s="32"/>
+      <c r="R48" s="32"/>
+      <c r="S48" s="32"/>
+      <c r="T48" s="32"/>
+      <c r="U48" s="32"/>
+      <c r="V48" s="32"/>
+      <c r="W48" s="32"/>
+      <c r="X48" s="32"/>
+      <c r="Y48" s="51"/>
     </row>
     <row r="49" ht="21.75" customHeight="1" spans="2:25">
       <c r="B49" s="19"/>
@@ -4623,17 +4562,17 @@
       <c r="L49" s="20"/>
       <c r="M49" s="20"/>
       <c r="N49" s="37"/>
-      <c r="O49" s="30"/>
-      <c r="P49" s="31"/>
-      <c r="Q49" s="31"/>
-      <c r="R49" s="31"/>
-      <c r="S49" s="31"/>
-      <c r="T49" s="31"/>
-      <c r="U49" s="31"/>
-      <c r="V49" s="31"/>
-      <c r="W49" s="31"/>
-      <c r="X49" s="31"/>
-      <c r="Y49" s="46"/>
+      <c r="O49" s="31"/>
+      <c r="P49" s="32"/>
+      <c r="Q49" s="32"/>
+      <c r="R49" s="32"/>
+      <c r="S49" s="32"/>
+      <c r="T49" s="32"/>
+      <c r="U49" s="32"/>
+      <c r="V49" s="32"/>
+      <c r="W49" s="32"/>
+      <c r="X49" s="32"/>
+      <c r="Y49" s="51"/>
     </row>
     <row r="50" ht="21.75" customHeight="1" spans="2:25">
       <c r="B50" s="19"/>
@@ -4649,17 +4588,17 @@
       <c r="L50" s="20"/>
       <c r="M50" s="20"/>
       <c r="N50" s="37"/>
-      <c r="O50" s="30"/>
-      <c r="P50" s="31"/>
-      <c r="Q50" s="31"/>
-      <c r="R50" s="31"/>
-      <c r="S50" s="31"/>
-      <c r="T50" s="31"/>
-      <c r="U50" s="31"/>
-      <c r="V50" s="31"/>
-      <c r="W50" s="31"/>
-      <c r="X50" s="31"/>
-      <c r="Y50" s="46"/>
+      <c r="O50" s="31"/>
+      <c r="P50" s="32"/>
+      <c r="Q50" s="32"/>
+      <c r="R50" s="32"/>
+      <c r="S50" s="32"/>
+      <c r="T50" s="32"/>
+      <c r="U50" s="32"/>
+      <c r="V50" s="32"/>
+      <c r="W50" s="32"/>
+      <c r="X50" s="32"/>
+      <c r="Y50" s="51"/>
     </row>
     <row r="51" ht="21.75" customHeight="1" spans="2:25">
       <c r="B51" s="19"/>
@@ -4675,17 +4614,17 @@
       <c r="L51" s="20"/>
       <c r="M51" s="20"/>
       <c r="N51" s="37"/>
-      <c r="O51" s="30"/>
-      <c r="P51" s="31"/>
-      <c r="Q51" s="31"/>
-      <c r="R51" s="31"/>
-      <c r="S51" s="31"/>
-      <c r="T51" s="31"/>
-      <c r="U51" s="31"/>
-      <c r="V51" s="31"/>
-      <c r="W51" s="31"/>
-      <c r="X51" s="31"/>
-      <c r="Y51" s="46"/>
+      <c r="O51" s="31"/>
+      <c r="P51" s="32"/>
+      <c r="Q51" s="32"/>
+      <c r="R51" s="32"/>
+      <c r="S51" s="32"/>
+      <c r="T51" s="32"/>
+      <c r="U51" s="32"/>
+      <c r="V51" s="32"/>
+      <c r="W51" s="32"/>
+      <c r="X51" s="32"/>
+      <c r="Y51" s="51"/>
     </row>
     <row r="52" ht="21.75" customHeight="1" spans="2:25">
       <c r="B52" s="21"/>
@@ -4693,28 +4632,48 @@
       <c r="D52" s="22"/>
       <c r="E52" s="22"/>
       <c r="F52" s="22"/>
-      <c r="G52" s="22"/>
-      <c r="H52" s="22"/>
-      <c r="I52" s="22"/>
+      <c r="G52" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="H52" s="23"/>
+      <c r="I52" s="38" t="str">
+        <f>IF(_ygl6_day_shift!B2="","",_ygl6_day_shift!B2)</f>
+        <v/>
+      </c>
       <c r="J52" s="22"/>
-      <c r="K52" s="22"/>
-      <c r="L52" s="22"/>
-      <c r="M52" s="22"/>
-      <c r="N52" s="38"/>
-      <c r="O52" s="33"/>
-      <c r="P52" s="34"/>
-      <c r="Q52" s="34"/>
-      <c r="R52" s="34"/>
-      <c r="S52" s="34"/>
-      <c r="T52" s="34"/>
-      <c r="U52" s="34"/>
-      <c r="V52" s="34"/>
-      <c r="W52" s="34"/>
-      <c r="X52" s="34"/>
-      <c r="Y52" s="47"/>
+      <c r="K52" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="L52" s="39" t="str">
+        <f>IF(_ygl6_day_shift!C2="","",_ygl6_day_shift!C2)</f>
+        <v/>
+      </c>
+      <c r="M52" s="39"/>
+      <c r="N52" s="40"/>
+      <c r="O52" s="34"/>
+      <c r="P52" s="35"/>
+      <c r="Q52" s="35"/>
+      <c r="R52" s="35"/>
+      <c r="S52" s="35"/>
+      <c r="T52" s="35"/>
+      <c r="U52" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="V52" s="44" t="str">
+        <f>IF(_ygl5_day_shift!B2="","",_ygl5_day_shift!B2)</f>
+        <v/>
+      </c>
+      <c r="W52" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="X52" s="45" t="str">
+        <f>IF(_ygl5_day_shift!C2="","",_ygl5_day_shift!C2)</f>
+        <v/>
+      </c>
+      <c r="Y52" s="52"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="24">
     <mergeCell ref="C4:N4"/>
     <mergeCell ref="O4:Y4"/>
     <mergeCell ref="B5:N5"/>
@@ -4727,13 +4686,18 @@
     <mergeCell ref="R7:S7"/>
     <mergeCell ref="T7:U7"/>
     <mergeCell ref="V7:Y7"/>
+    <mergeCell ref="X28:Y28"/>
+    <mergeCell ref="X40:Y40"/>
     <mergeCell ref="B41:N41"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="L52:N52"/>
+    <mergeCell ref="X52:Y52"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B2:Y3"/>
-    <mergeCell ref="B42:N52"/>
-    <mergeCell ref="O17:Y28"/>
-    <mergeCell ref="O29:Y40"/>
-    <mergeCell ref="O41:Y52"/>
+    <mergeCell ref="O17:Y27"/>
+    <mergeCell ref="O29:Y39"/>
+    <mergeCell ref="O41:Y51"/>
+    <mergeCell ref="B42:N51"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.55" right="0.159027777777778" top="0.2" bottom="0.2" header="0.309027777777778" footer="0.309027777777778"/>
@@ -4748,41 +4712,41 @@
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -4797,7 +4761,7 @@
   <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4812,33 +4776,33 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -4860,33 +4824,145 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" t="s">
         <v>80</v>
+      </c>
+      <c r="C1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
